--- a/xlsx/RobotAiData.xlsx
+++ b/xlsx/RobotAiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2697A4-A6B8-4492-81D1-EDCCB6D80409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE4F14D-1086-4A9F-9239-3F5188EC4A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6255" yWindow="1575" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>PlayerRobotBase</t>
-  </si>
-  <si>
-    <t>Shark</t>
   </si>
   <si>
     <t>【血量低于这个比例吃杂鱼，高于则吃玩家】</t>
@@ -67,6 +64,14 @@
   </si>
   <si>
     <t>怂货杂鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerRobotBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerRobotShark</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1304,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1331,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1348,16 +1353,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
